--- a/data/surge/surgeData136.xlsx
+++ b/data/surge/surgeData136.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_136_Arrow Head Lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1441" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306C19BA-7D65-4593-BC14-BB015C8F9571}"/>
+  <xr:revisionPtr revIDLastSave="1442" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C323225F-1652-4A1C-A177-884A1B6E3B7E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="2532" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1744,76 +1744,76 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K23" sqref="K23"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.26953125" customWidth="1"/>
-    <col min="30" max="30" width="5.54296875" customWidth="1"/>
-    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.21875" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.453125" customWidth="1"/>
-    <col min="51" max="51" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>162</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>0.44184027777777773</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>162</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>162</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>162</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>162</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>162</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>162</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>162</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>162</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>162</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>162</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>178</v>
       </c>
       <c r="D15" s="30">
-        <v>33.662497000000002</v>
+        <v>36.662497000000002</v>
       </c>
       <c r="E15">
         <v>91.881916000000004</v>
@@ -3328,7 +3328,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>162</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>162</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="S18" s="27"/>
@@ -3534,14 +3534,14 @@
       <selection sqref="A1:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>233</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>235</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -4324,17 +4324,17 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>162</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>162</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>162</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>162</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>162</v>
       </c>
@@ -4575,14 +4575,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>145</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>146</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>147</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>148</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>149</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>150</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>151</v>
       </c>
@@ -4695,6 +4695,57 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5165,64 +5216,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB55F047-E11F-4744-A5DB-F58BFBF70F9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5240,9 +5244,24 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB55F047-E11F-4744-A5DB-F58BFBF70F9F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
